--- a/en/application_framework/application_framework/handlers/images/DataReadHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/DataReadHandler/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CFA465-65F4-448E-8978-69152D3A42F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DbConnectionManagementHandler" sheetId="4" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +69,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -89,7 +93,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -121,11 +131,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>データリードハンドラ</a:t>
+            <a:t>Data Read Handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -147,7 +158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -179,20 +196,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>入力データの読み込み</a:t>
+            <a:t>Import input data</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -213,7 +223,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -245,38 +261,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>実行時</a:t>
+            <a:t>Numbering of runtime ID</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の採番</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -297,7 +288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="18" idx="0"/>
@@ -347,7 +344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -379,20 +382,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call the subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -413,7 +409,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="46" idx="0"/>
@@ -463,7 +465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -495,11 +503,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -521,7 +530,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="51" idx="1"/>
@@ -560,7 +575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,9 +650,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,6 +702,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -845,12 +894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
